--- a/src/test/resources/TestCases/Proyecto Final.xlsx
+++ b/src/test/resources/TestCases/Proyecto Final.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="13095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Carrito" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>PRUEBA</t>
   </si>
@@ -219,6 +220,87 @@
   </si>
   <si>
     <t>PR-07</t>
+  </si>
+  <si>
+    <t>9. Introducir la contraseña "usuariopruebas error" otra vez en el campo "Password Confirm"</t>
+  </si>
+  <si>
+    <t>PR-08</t>
+  </si>
+  <si>
+    <t>Validar que un producto se añade bien</t>
+  </si>
+  <si>
+    <t>2. Hacer el login o registro e ir  a la página de inicio</t>
+  </si>
+  <si>
+    <t>2. El usuario es en la página de inicio</t>
+  </si>
+  <si>
+    <t>3. Añadir al carrito el producto "MacBook"</t>
+  </si>
+  <si>
+    <t>3. En el carrito pone el número de items puestos 1 y el precio 500$</t>
+  </si>
+  <si>
+    <t>PR-09</t>
+  </si>
+  <si>
+    <t>Validar que 2 productos iguales se añaden bien</t>
+  </si>
+  <si>
+    <t>4. Añadir al carrito el producto "MacBook"</t>
+  </si>
+  <si>
+    <t>4. En el carrito pone el número de items puestos 2 y el precio 1000$</t>
+  </si>
+  <si>
+    <t>PR-10</t>
+  </si>
+  <si>
+    <t>Validar que 2 productos distintos se añaden bien</t>
+  </si>
+  <si>
+    <t>4. Añadir al carrito el producto "IPhone"</t>
+  </si>
+  <si>
+    <t>4. En el carrito pone el número de items puestos 2 y el precio 601$</t>
+  </si>
+  <si>
+    <t>PR-11</t>
+  </si>
+  <si>
+    <t>Validar que se pueden eliminar correctamente productos del carrito</t>
+  </si>
+  <si>
+    <t>5. Quitar el producto "MacBook"</t>
+  </si>
+  <si>
+    <t>5. En el carrito pone el número de items puestos 1 y el precio 101$</t>
+  </si>
+  <si>
+    <t>PR-12</t>
+  </si>
+  <si>
+    <t>Validar que al cerrar sesión el carrito sigue teniendo los productos añadidos</t>
+  </si>
+  <si>
+    <t>4. Hacer click en el botón de "My account" de la barra de navegación</t>
+  </si>
+  <si>
+    <t>4. Se despliega el menú con la opciones "My Account", "Order History", "Transactions", "Downloads" y "Logout"</t>
+  </si>
+  <si>
+    <t>5. Hacer click sobre el botón de "Logout" en el menú desplegado</t>
+  </si>
+  <si>
+    <t>5. Se le cierra la sesión al usuario</t>
+  </si>
+  <si>
+    <t>6. Volver a hacer el login</t>
+  </si>
+  <si>
+    <t>6. El producto añadido ("MacBook") está en el carrito</t>
   </si>
 </sst>
 </file>
@@ -248,6 +330,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -263,8 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +378,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -364,7 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,14 +454,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,187 +483,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,10 +692,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -637,7 +719,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -648,6 +732,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -670,37 +763,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -712,13 +774,33 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,13 +813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,21 +882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -819,18 +890,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,22 +927,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,107 +948,110 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,40 +1070,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1346,7 +1455,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B15"/>
+      <selection activeCell="C5" sqref="C5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="34" customHeight="1" outlineLevelCol="5"/>
@@ -1376,148 +1485,148 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1538,8 +1647,8 @@
   <sheetPr/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="34" customHeight="1" outlineLevelCol="4"/>
@@ -1564,7 +1673,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1572,731 +1681,731 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9" t="s">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:4">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" customHeight="1" spans="1:4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" customHeight="1" spans="1:4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" customHeight="1" spans="1:4">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" customHeight="1" spans="1:4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" customHeight="1" spans="1:4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" customHeight="1" spans="1:4">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" customHeight="1" spans="1:4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" customHeight="1" spans="1:4">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" customHeight="1" spans="1:4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
     </row>
     <row r="78" customHeight="1" spans="1:4">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" customHeight="1" spans="1:4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" customHeight="1" spans="1:4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" customHeight="1" spans="1:4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
     </row>
     <row r="82" customHeight="1" spans="1:4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" customHeight="1" spans="1:4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" customHeight="1" spans="1:4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
     </row>
     <row r="85" customHeight="1" spans="1:4">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2314,4 +2423,302 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="34" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="26.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="4" width="100.142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93"/>
+    <col min="7" max="16384" width="26.4285714285714" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E2"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/TestCases/Proyecto Final.xlsx
+++ b/src/test/resources/TestCases/Proyecto Final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13095" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -308,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -331,7 +331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,18 +352,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,6 +371,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +406,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -422,29 +429,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -460,21 +452,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,187 +483,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,17 +825,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,24 +881,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,17 +913,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,149 +921,149 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,11 +1073,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1076,6 +1091,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,6 +1103,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,29 +1127,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1195,7 +1201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Oficina">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1455,10 +1461,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="34" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="26.4285714285714" style="1" customWidth="1"/>
     <col min="3" max="4" width="100.142857142857" style="1" customWidth="1"/>
@@ -1467,15 +1473,15 @@
     <col min="7" max="16384" width="26.4285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="5:6">
+    <row r="1" ht="34" customHeight="1" spans="5:6">
       <c r="E1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" customHeight="1" spans="5:6">
+    <row r="2" ht="34" customHeight="1" spans="5:6">
       <c r="E2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1489,144 +1495,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="23" t="s">
+    <row r="4" ht="34" customHeight="1" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" ht="34" customHeight="1" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" ht="34" customHeight="1" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" ht="34" customHeight="1" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" ht="34" customHeight="1" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" ht="34" customHeight="1" spans="1:6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="21" t="s">
+    <row r="10" ht="34" customHeight="1" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" ht="34" customHeight="1" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" ht="34" customHeight="1" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" ht="34" customHeight="1" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="9" t="s">
+    <row r="14" ht="34" customHeight="1" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="12" t="s">
+    <row r="15" ht="34" customHeight="1" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1647,11 +1653,11 @@
   <sheetPr/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="34" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="26.4285714285714" style="1" customWidth="1"/>
     <col min="3" max="4" width="100.142857142857" style="1" customWidth="1"/>
@@ -1660,752 +1666,752 @@
     <col min="7" max="16384" width="26.4285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="5:5">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="5:5">
       <c r="E1"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="5:5">
+    <row r="2" s="1" customFormat="1" ht="34" customHeight="1" spans="5:5">
       <c r="E2"/>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="21" t="s">
+    <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+    <row r="5" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24" t="s">
+    <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+    <row r="8" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+    <row r="9" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+    <row r="10" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+    <row r="11" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+    <row r="12" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24" t="s">
+    <row r="13" s="1" customFormat="1" ht="34" customHeight="1" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+    <row r="14" s="1" customFormat="1" ht="34" customHeight="1" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="21" t="s">
+    <row r="15" s="1" customFormat="1" ht="34" customHeight="1" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+    <row r="16" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
+    <row r="17" ht="34" customHeight="1" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+    <row r="18" ht="34" customHeight="1" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24" t="s">
+    <row r="19" ht="34" customHeight="1" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
+    <row r="20" ht="34" customHeight="1" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="34" customHeight="1" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="34" customHeight="1" spans="1:4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="34" customHeight="1" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
+    <row r="24" ht="34" customHeight="1" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="21" t="s">
+    <row r="25" ht="34" customHeight="1" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="s">
+    <row r="26" ht="34" customHeight="1" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24" t="s">
+    <row r="27" ht="34" customHeight="1" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
+    <row r="28" ht="34" customHeight="1" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24" t="s">
+    <row r="29" ht="34" customHeight="1" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24" t="s">
+    <row r="30" ht="34" customHeight="1" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24" t="s">
+    <row r="31" ht="34" customHeight="1" spans="1:4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24" t="s">
+    <row r="32" ht="34" customHeight="1" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24" t="s">
+    <row r="33" ht="34" customHeight="1" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26" t="s">
+    <row r="34" ht="34" customHeight="1" spans="1:4">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="21" t="s">
+    <row r="35" ht="34" customHeight="1" spans="1:4">
+      <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
+    <row r="36" ht="34" customHeight="1" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24" t="s">
+    <row r="37" ht="34" customHeight="1" spans="1:4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24" t="s">
+    <row r="38" ht="34" customHeight="1" spans="1:4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
+    <row r="39" ht="34" customHeight="1" spans="1:4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24" t="s">
+    <row r="40" ht="34" customHeight="1" spans="1:4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24" t="s">
+    <row r="41" ht="34" customHeight="1" spans="1:4">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24" t="s">
+    <row r="42" ht="34" customHeight="1" spans="1:4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24" t="s">
+    <row r="43" ht="34" customHeight="1" spans="1:4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24" t="s">
+    <row r="44" ht="34" customHeight="1" spans="1:4">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26" t="s">
+    <row r="45" ht="34" customHeight="1" spans="1:4">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="21" t="s">
+    <row r="46" ht="34" customHeight="1" spans="1:4">
+      <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24" t="s">
+    <row r="47" ht="34" customHeight="1" spans="1:4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24" t="s">
+    <row r="48" ht="34" customHeight="1" spans="1:4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24" t="s">
+    <row r="49" ht="34" customHeight="1" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24" t="s">
+    <row r="50" ht="34" customHeight="1" spans="1:4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24" t="s">
+    <row r="51" ht="34" customHeight="1" spans="1:4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24" t="s">
+    <row r="52" ht="34" customHeight="1" spans="1:4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24" t="s">
+    <row r="53" ht="34" customHeight="1" spans="1:4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24" t="s">
+    <row r="54" ht="34" customHeight="1" spans="1:4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24" t="s">
+    <row r="55" ht="34" customHeight="1" spans="1:4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:4">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26" t="s">
+    <row r="56" ht="34" customHeight="1" spans="1:4">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:4">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:4">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:4">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:4">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:4">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:4">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:4">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:4">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:4">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:4">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:4">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:4">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:4">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:4">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:4">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:4">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+    <row r="57" ht="34" customHeight="1" spans="1:4">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" ht="34" customHeight="1" spans="1:4">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" ht="34" customHeight="1" spans="1:4">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" ht="34" customHeight="1" spans="1:4">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" ht="34" customHeight="1" spans="1:4">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" ht="34" customHeight="1" spans="1:4">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" ht="34" customHeight="1" spans="1:4">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+    </row>
+    <row r="64" ht="34" customHeight="1" spans="1:4">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" ht="34" customHeight="1" spans="1:4">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" ht="34" customHeight="1" spans="1:4">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" ht="34" customHeight="1" spans="1:4">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" ht="34" customHeight="1" spans="1:4">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" ht="34" customHeight="1" spans="1:4">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" ht="34" customHeight="1" spans="1:4">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" ht="34" customHeight="1" spans="1:4">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" ht="34" customHeight="1" spans="1:4">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" ht="34" customHeight="1" spans="1:4">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" ht="34" customHeight="1" spans="1:4">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" ht="34" customHeight="1" spans="1:4">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" ht="34" customHeight="1" spans="1:4">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" ht="34" customHeight="1" spans="1:4">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" ht="34" customHeight="1" spans="1:4">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" ht="34" customHeight="1" spans="1:4">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" ht="34" customHeight="1" spans="1:4">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" ht="34" customHeight="1" spans="1:4">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" ht="34" customHeight="1" spans="1:4">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" ht="34" customHeight="1" spans="1:4">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" ht="34" customHeight="1" spans="1:4">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+    </row>
+    <row r="85" ht="34" customHeight="1" spans="1:4">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2430,11 +2436,11 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="34" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="26.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="26.4285714285714" style="1" customWidth="1"/>
     <col min="3" max="4" width="100.142857142857" style="1" customWidth="1"/>
@@ -2443,13 +2449,13 @@
     <col min="7" max="16384" width="26.4285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="5:5">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="5:5">
       <c r="E1"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="5:5">
+    <row r="2" s="1" customFormat="1" ht="34" customHeight="1" spans="5:5">
       <c r="E2"/>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2463,245 +2469,245 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="12" t="s">
+    <row r="10" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="11" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" s="1" customFormat="1" ht="34" customHeight="1" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+    <row r="14" s="1" customFormat="1" ht="34" customHeight="1" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="15" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="9" t="s">
+    <row r="16" ht="34" customHeight="1" spans="1:4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="9" t="s">
+    <row r="17" ht="34" customHeight="1" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="9" t="s">
+    <row r="18" ht="34" customHeight="1" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="12" t="s">
+    <row r="19" ht="34" customHeight="1" spans="1:4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" ht="34" customHeight="1" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="9" t="s">
+    <row r="21" ht="34" customHeight="1" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="9" t="s">
+    <row r="22" ht="34" customHeight="1" spans="1:4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="9" t="s">
+    <row r="23" ht="34" customHeight="1" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="9" t="s">
+    <row r="24" ht="34" customHeight="1" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18" t="s">
+    <row r="25" ht="34" customHeight="1" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>94</v>
       </c>
     </row>
